--- a/BioCalculators_CL.xlsx
+++ b/BioCalculators_CL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changfanlin/Desktop/Gradinaru Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A944420-394E-784A-A458-A70DA5A1C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A54C1-AC24-DB46-B38E-6AD5E0E95AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27640" windowHeight="15780" activeTab="5" xr2:uid="{90CCEDEC-ECFD-D240-B380-C9B6A79B22D4}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27640" windowHeight="15780" activeTab="6" xr2:uid="{90CCEDEC-ECFD-D240-B380-C9B6A79B22D4}"/>
   </bookViews>
   <sheets>
     <sheet name="PEI-adherent" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="128">
   <si>
     <t xml:space="preserve">PEI: DNA ratio </t>
   </si>
@@ -430,9 +430,6 @@
     <t>H20</t>
   </si>
   <si>
-    <t xml:space="preserve">reaction number </t>
-  </si>
-  <si>
     <t>Exo V required</t>
   </si>
   <si>
@@ -448,15 +445,9 @@
     <t>elution volume after spin column (ul)</t>
   </si>
   <si>
-    <t>dilution after spin column purification</t>
-  </si>
-  <si>
     <t>total dilution factor</t>
   </si>
   <si>
-    <t>dilution factor in Dnase reaction</t>
-  </si>
-  <si>
     <t>titer of sample (vg/ul)</t>
   </si>
   <si>
@@ -464,6 +455,21 @@
   </si>
   <si>
     <t>ddPCR reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total amount of purified sample (ul) </t>
+  </si>
+  <si>
+    <t>total yield (vg)</t>
+  </si>
+  <si>
+    <t>Serial Dilution</t>
+  </si>
+  <si>
+    <t>Gibson reaction number</t>
+  </si>
+  <si>
+    <t>reaction number (to make H20 volume a positive number)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1014,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1085,10 +1091,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,33 +1146,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,6 +1156,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1170,10 +1212,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,11 +1227,14 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1212,6 +1257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1224,50 +1275,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,17 +1686,17 @@
         <f>C7*C8</f>
         <v>40</v>
       </c>
-      <c r="N11" s="56" t="s">
+      <c r="N11" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57" t="s">
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="58"/>
+      <c r="T11" s="94"/>
     </row>
     <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
@@ -1735,13 +1743,13 @@
       <c r="Q13" s="21">
         <v>15</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="95">
         <v>60</v>
       </c>
-      <c r="S13" s="69">
+      <c r="S13" s="96">
         <v>12</v>
       </c>
-      <c r="T13" s="70">
+      <c r="T13" s="97">
         <v>63</v>
       </c>
     </row>
@@ -1750,29 +1758,29 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="70"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="97"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="94"/>
       <c r="N15" s="4"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="70"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="97"/>
     </row>
     <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -1799,16 +1807,16 @@
       <c r="N16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="62">
+      <c r="O16" s="88">
         <v>75</v>
       </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="66">
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="90">
         <v>75</v>
       </c>
-      <c r="T16" s="67"/>
+      <c r="T16" s="91"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
@@ -1824,15 +1832,15 @@
         <f>C11/SUM(D17:D19)*D17/C17</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="95">
         <f>C10-SUM(E17:E19)</f>
         <v>800</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="96">
         <f>C12/C5</f>
         <v>160</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="97">
         <f>C10-G17</f>
         <v>840</v>
       </c>
@@ -1851,9 +1859,9 @@
         <f>C11/SUM(D17:D19)*D18/C18</f>
         <v>114.28571428571428</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -1869,26 +1877,26 @@
         <f>C11/SUM(D17:D19)*D19/C19</f>
         <v>57.142857142857139</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="88">
         <f>SUM(E17:F19)</f>
         <v>1000</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="66">
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90">
         <f>SUM(G17:H19)</f>
         <v>1000</v>
       </c>
-      <c r="H20" s="67"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
@@ -1912,30 +1920,30 @@
       <c r="C22" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N22" s="56" t="s">
+      <c r="N22" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57" t="s">
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="T22" s="58"/>
+      <c r="T22" s="94"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="94"/>
       <c r="N23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1993,15 +2001,15 @@
         <f>Q13*$O$21</f>
         <v>54</v>
       </c>
-      <c r="R24" s="68">
+      <c r="R24" s="95">
         <f>R13*$O$21</f>
         <v>216</v>
       </c>
-      <c r="S24" s="69">
+      <c r="S24" s="96">
         <f>S13*O21</f>
         <v>43.2</v>
       </c>
-      <c r="T24" s="70">
+      <c r="T24" s="97">
         <f>T13*O21</f>
         <v>226.8</v>
       </c>
@@ -2016,15 +2024,15 @@
         <f>E17*$C$22</f>
         <v>131.42857142857142</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="100">
         <f>F17*C22</f>
         <v>3679.9999999999995</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="101">
         <f>G17*C22</f>
         <v>736</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="102">
         <f>H17*C22</f>
         <v>3863.9999999999995</v>
       </c>
@@ -2032,9 +2040,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="70"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="97"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
@@ -2049,16 +2057,16 @@
         <f t="shared" ref="E26:E27" si="0">E18*$C$22</f>
         <v>525.71428571428567</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="102"/>
       <c r="N26" s="4"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="70"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="97"/>
     </row>
     <row r="27" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -2070,41 +2078,41 @@
         <f t="shared" si="0"/>
         <v>262.85714285714283</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="102"/>
       <c r="N27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O27" s="62">
+      <c r="O27" s="88">
         <f>O16*O21</f>
         <v>270</v>
       </c>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="66">
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="90">
         <f>S16*O21</f>
         <v>270</v>
       </c>
-      <c r="T27" s="67"/>
+      <c r="T27" s="91"/>
     </row>
     <row r="28" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="88">
         <f>SUM(E25:F27)</f>
         <v>4600</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64">
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="103">
         <f>SUM(G25:H27)</f>
         <v>4600</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="104"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F29" s="7"/>
@@ -2132,22 +2140,22 @@
       <c r="F32" s="31"/>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="2:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
@@ -2179,6 +2187,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
     <mergeCell ref="O27:R27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="O16:R16"/>
@@ -2188,27 +2217,6 @@
     <mergeCell ref="R24:R26"/>
     <mergeCell ref="S24:S26"/>
     <mergeCell ref="T24:T26"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2239,19 +2247,19 @@
       <c r="B3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="107"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="58"/>
     </row>
     <row r="5" spans="2:3" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="54"/>
     </row>
     <row r="6" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -2266,7 +2274,7 @@
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="59">
         <v>3</v>
       </c>
     </row>
@@ -2274,7 +2282,7 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="59">
         <v>30</v>
       </c>
     </row>
@@ -2327,7 +2335,7 @@
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -2335,7 +2343,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="110">
+      <c r="B17" s="60">
         <v>2</v>
       </c>
       <c r="C17" s="5">
@@ -2343,7 +2351,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="110">
+      <c r="B18" s="60">
         <v>4</v>
       </c>
       <c r="C18" s="5">
@@ -2354,7 +2362,7 @@
       <c r="B19" s="22">
         <v>1</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="56">
         <v>11635</v>
       </c>
     </row>
@@ -2364,17 +2372,17 @@
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="8"/>
       <c r="K22" s="8"/>
     </row>
@@ -2405,10 +2413,10 @@
       <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="111">
+      <c r="C24" s="61">
         <v>0.2</v>
       </c>
-      <c r="D24" s="112">
+      <c r="D24" s="62">
         <f>C17*B17/C19</f>
         <v>1.0110872367855608</v>
       </c>
@@ -2416,15 +2424,15 @@
         <f>C13/SUM(D24:D26)*D24/C24</f>
         <v>43.51521528268696</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="95">
         <f>C12-SUM(E24:E26)</f>
         <v>525</v>
       </c>
-      <c r="G24" s="69">
+      <c r="G24" s="96">
         <f>C14/C7</f>
         <v>135</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="97">
         <f>C12-G24</f>
         <v>615</v>
       </c>
@@ -2433,10 +2441,10 @@
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25" s="61">
         <v>0.2</v>
       </c>
-      <c r="D25" s="112">
+      <c r="D25" s="62">
         <f>C18*B18/C19</f>
         <v>3.2168457241082939</v>
       </c>
@@ -2444,15 +2452,15 @@
         <f>C13/SUM(D24:D26)*D25/C25</f>
         <v>138.4467424005787</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="111">
+      <c r="C26" s="61">
         <v>0.2</v>
       </c>
       <c r="D26" s="14">
@@ -2462,26 +2470,26 @@
         <f>C13/SUM(D24:D26)*D26/C26</f>
         <v>43.038042316734341</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="97"/>
     </row>
     <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="88">
         <f>SUM(E24:F26)</f>
         <v>750.00000000000011</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="66">
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90">
         <f>SUM(G24:H26)</f>
         <v>750</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
@@ -2501,17 +2509,17 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72" t="s">
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="107"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
@@ -2546,15 +2554,15 @@
         <f>E24*$C$29</f>
         <v>87.030430565373919</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="100">
         <f>F24*C29</f>
         <v>1050</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="101">
         <f>G24*C29</f>
         <v>270</v>
       </c>
-      <c r="H32" s="61">
+      <c r="H32" s="102">
         <f>H24*C29</f>
         <v>1230</v>
       </c>
@@ -2569,9 +2577,9 @@
         <f t="shared" ref="E33:E34" si="0">E25*$C$29</f>
         <v>276.8934848011574</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="102"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
@@ -2583,26 +2591,26 @@
         <f t="shared" si="0"/>
         <v>86.076084633468682</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="102"/>
     </row>
     <row r="35" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="88">
         <f>SUM(E32:F34)</f>
         <v>1500.0000000000002</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64">
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="103">
         <f>SUM(G32:H34)</f>
         <v>1500</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F36" s="7"/>
@@ -2629,31 +2637,31 @@
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
     </row>
     <row r="41" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
     </row>
     <row r="42" spans="2:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
     </row>
     <row r="43" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
@@ -2675,6 +2683,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B40:F40"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="G22:H22"/>
@@ -2689,9 +2700,6 @@
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2789,21 +2797,21 @@
     </row>
     <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
@@ -2851,7 +2859,7 @@
         <f>C11/SUM(D17:D19)*D17/C17</f>
         <v>43.269230769230766</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="111">
         <f>C10-SUM(E17:E19)</f>
         <v>2775</v>
       </c>
@@ -2868,7 +2876,7 @@
         <f>C11/SUM(J17:J19)*J17/I17</f>
         <v>11.053882725832013</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="111">
         <f>C10-SUM(K17:K19)</f>
         <v>2775</v>
       </c>
@@ -2887,7 +2895,7 @@
         <f>C11/SUM(D17:D19)*D18/C18</f>
         <v>138.46153846153845</v>
       </c>
-      <c r="F18" s="78"/>
+      <c r="F18" s="112"/>
       <c r="H18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +2909,7 @@
         <f>C11/SUM(J17:J19)*J18/I18</f>
         <v>178.28843106180665</v>
       </c>
-      <c r="L18" s="78"/>
+      <c r="L18" s="112"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -2917,7 +2925,7 @@
         <f>C11/SUM(D17:D19)*D19/C19</f>
         <v>43.269230769230766</v>
       </c>
-      <c r="F19" s="79"/>
+      <c r="F19" s="113"/>
       <c r="H19" s="4" t="s">
         <v>4</v>
       </c>
@@ -2931,29 +2939,29 @@
         <f>C11/SUM(J17:J19)*J19/I19</f>
         <v>35.657686212361334</v>
       </c>
-      <c r="L19" s="79"/>
+      <c r="L19" s="113"/>
     </row>
     <row r="20" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="114">
         <f>SUM(E17:F19)</f>
         <v>3000.0000000000005</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
       <c r="H20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="80">
+      <c r="I20" s="114">
         <f>SUM(K17:L19)</f>
         <v>2999.9999999999995</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="82"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="116"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
@@ -2982,20 +2990,20 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="H23" s="74" t="s">
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110"/>
+      <c r="H23" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="76"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="110"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -3039,7 +3047,7 @@
         <f>E17*$C$22*2</f>
         <v>103.84615384615384</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="100">
         <f>F17*C22*2</f>
         <v>6660</v>
       </c>
@@ -3052,7 +3060,7 @@
         <f>K17*$C$22</f>
         <v>13.264659270998415</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="100">
         <f>L17*I22</f>
         <v>3330</v>
       </c>
@@ -3067,7 +3075,7 @@
         <f t="shared" ref="E26:E27" si="0">E18*$C$22*2</f>
         <v>332.30769230769226</v>
       </c>
-      <c r="F26" s="59"/>
+      <c r="F26" s="100"/>
       <c r="H26" s="4" t="s">
         <v>3</v>
       </c>
@@ -3077,7 +3085,7 @@
         <f>K18*$C$22</f>
         <v>213.94611727416796</v>
       </c>
-      <c r="L26" s="59"/>
+      <c r="L26" s="100"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
@@ -3089,7 +3097,7 @@
         <f t="shared" si="0"/>
         <v>103.84615384615384</v>
       </c>
-      <c r="F27" s="59"/>
+      <c r="F27" s="100"/>
       <c r="H27" s="4" t="s">
         <v>4</v>
       </c>
@@ -3099,29 +3107,29 @@
         <f>K19*$C$22</f>
         <v>42.789223454833596</v>
       </c>
-      <c r="L27" s="59"/>
+      <c r="L27" s="100"/>
     </row>
     <row r="28" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="88">
         <f>SUM(E25:F27)</f>
         <v>7200.0000000000009</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
       <c r="H28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="62">
+      <c r="I28" s="88">
         <f>SUM(K25:L27)</f>
         <v>3600</v>
       </c>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F29" s="7"/>
@@ -3146,18 +3154,18 @@
       <c r="F32" s="31"/>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="2:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B35" s="32"/>
@@ -3319,17 +3327,17 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
@@ -3368,15 +3376,15 @@
         <f>C11/SUM(D17:D20)*D17/C17</f>
         <v>50</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="95">
         <f>C10-SUM(E17:E20)</f>
         <v>799</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="96">
         <f>C12/C5</f>
         <v>160</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="97">
         <f>C10-G17</f>
         <v>840</v>
       </c>
@@ -3395,9 +3403,9 @@
         <f>C11/SUM(D17:D20)*D18/C18</f>
         <v>50</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -3413,9 +3421,9 @@
         <f>C11/SUM(D17:D20)*D19/C19</f>
         <v>100</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
@@ -3429,26 +3437,26 @@
         <f>C14/1000/C20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="88">
         <f>SUM(E17:F20)</f>
         <v>1000</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="66">
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90">
         <f>SUM(G17:H20)</f>
         <v>1000</v>
       </c>
-      <c r="H21" s="67"/>
+      <c r="H21" s="91"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
@@ -3468,17 +3476,17 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57" t="s">
+      <c r="C24" s="118"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="94"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
@@ -3513,15 +3521,15 @@
         <f>E17*$C$23</f>
         <v>3600</v>
       </c>
-      <c r="F26" s="85">
+      <c r="F26" s="119">
         <f>F17*C23</f>
         <v>57528</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="101">
         <f>G17*C23</f>
         <v>11520</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H26" s="122">
         <f>H17*C23</f>
         <v>60480</v>
       </c>
@@ -3543,9 +3551,9 @@
         <f>E18*$C$23</f>
         <v>3600</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="102"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="123"/>
       <c r="J27">
         <f t="shared" ref="J27:J28" si="0">0.2*E27</f>
         <v>720</v>
@@ -3564,9 +3572,9 @@
         <f>E19*$C$23</f>
         <v>7200</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="102"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="123"/>
       <c r="J28">
         <f t="shared" si="0"/>
         <v>1440</v>
@@ -3585,26 +3593,26 @@
         <f>E20*C23</f>
         <v>72</v>
       </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="103"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="124"/>
     </row>
     <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="88">
         <f>SUM(E26:F29)</f>
         <v>72000</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64">
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="103">
         <f>SUM(G26:H28)</f>
         <v>72000</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="104"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="F31" s="7"/>
@@ -3621,17 +3629,17 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57" t="s">
+      <c r="C34" s="118"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="58"/>
+      <c r="H34" s="94"/>
     </row>
     <row r="35" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
@@ -3670,14 +3678,14 @@
         <f>($C$11-0.1)/SUM(D36:D38)*D36/C36</f>
         <v>66.499999999999986</v>
       </c>
-      <c r="F36" s="90">
+      <c r="F36" s="125">
         <f>C10-SUM(E36:E38)</f>
         <v>790.5</v>
       </c>
-      <c r="G36" s="91">
+      <c r="G36" s="126">
         <v>160</v>
       </c>
-      <c r="H36" s="94">
+      <c r="H36" s="129">
         <v>840</v>
       </c>
     </row>
@@ -3695,9 +3703,9 @@
         <f>($C$11-0.1)/SUM(D36:D38)*D37/C37</f>
         <v>132.99999999999997</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="130"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
@@ -3710,26 +3718,26 @@
       <c r="E38" s="21">
         <v>10</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="96"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="131"/>
     </row>
     <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="88">
         <f>SUM(E36:F38)</f>
         <v>1000</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="83">
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="132">
         <f>SUM(G36:H38)</f>
         <v>1000</v>
       </c>
-      <c r="H39" s="84"/>
+      <c r="H39" s="133"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
@@ -3749,17 +3757,17 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57" t="s">
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="58"/>
+      <c r="H42" s="94"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
@@ -3794,15 +3802,15 @@
         <f>E36*C41</f>
         <v>4787.9999999999991</v>
       </c>
-      <c r="F44" s="85">
+      <c r="F44" s="119">
         <f>F36*C41</f>
         <v>56916</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="101">
         <f>G36*C41</f>
         <v>11520</v>
       </c>
-      <c r="H44" s="60">
+      <c r="H44" s="101">
         <f>H36*C41</f>
         <v>60480</v>
       </c>
@@ -3821,9 +3829,9 @@
         <f>E37*C41</f>
         <v>9575.9999999999982</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
       <c r="J45">
         <f>0.2*E45</f>
         <v>1915.1999999999998</v>
@@ -3839,26 +3847,26 @@
         <f>E38*C41</f>
         <v>720</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
     </row>
     <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="62">
+      <c r="C47" s="88">
         <f>SUM(E44:F46)</f>
         <v>72000</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64">
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="103">
         <f>SUM(G44:H45)</f>
         <v>72000</v>
       </c>
-      <c r="H47" s="65"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="50" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
@@ -3869,17 +3877,17 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57" t="s">
+      <c r="C51" s="118"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="H51" s="58"/>
+      <c r="H51" s="94"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
@@ -3918,14 +3926,14 @@
         <f>($C$11-1)/SUM(D53:D55)*D53/C53</f>
         <v>65</v>
       </c>
-      <c r="F53" s="90">
+      <c r="F53" s="125">
         <f>C10-SUM(E53:E55)</f>
         <v>705</v>
       </c>
-      <c r="G53" s="91">
+      <c r="G53" s="126">
         <v>160</v>
       </c>
-      <c r="H53" s="94">
+      <c r="H53" s="129">
         <v>840</v>
       </c>
     </row>
@@ -3943,9 +3951,9 @@
         <f>($C$11-1)/SUM(D53:D55)*D54/C54</f>
         <v>130</v>
       </c>
-      <c r="F54" s="68"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="130"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
@@ -3958,26 +3966,26 @@
       <c r="E55" s="21">
         <v>100</v>
       </c>
-      <c r="F55" s="68"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="96"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="131"/>
     </row>
     <row r="56" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="62">
+      <c r="C56" s="88">
         <f>SUM(E53:F55)</f>
         <v>1000</v>
       </c>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="83">
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="132">
         <f>SUM(G53:H55)</f>
         <v>1000</v>
       </c>
-      <c r="H56" s="84"/>
+      <c r="H56" s="133"/>
     </row>
     <row r="57" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -3997,17 +4005,17 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="97" t="s">
+      <c r="B59" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="76" t="s">
+      <c r="C59" s="135"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="H59" s="58"/>
+      <c r="H59" s="94"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="40" t="s">
@@ -4042,15 +4050,15 @@
         <f>E53*C58</f>
         <v>78</v>
       </c>
-      <c r="F61" s="85">
+      <c r="F61" s="119">
         <f>F53*C58</f>
         <v>846</v>
       </c>
-      <c r="G61" s="60">
+      <c r="G61" s="101">
         <f>G53*C58</f>
         <v>192</v>
       </c>
-      <c r="H61" s="60">
+      <c r="H61" s="101">
         <f>H53*C58</f>
         <v>1008</v>
       </c>
@@ -4065,9 +4073,9 @@
         <f>E54*C58</f>
         <v>156</v>
       </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
@@ -4079,26 +4087,26 @@
         <f>E55*C58</f>
         <v>120</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
     </row>
     <row r="64" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C64" s="88">
         <f>SUM(E61:F63)</f>
         <v>1200</v>
       </c>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64">
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="103">
         <f>SUM(G61:H62)</f>
         <v>1200</v>
       </c>
-      <c r="H64" s="65"/>
+      <c r="H64" s="104"/>
     </row>
     <row r="67" spans="2:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B67" s="33"/>
@@ -4123,22 +4131,22 @@
       <c r="F69" s="33"/>
     </row>
     <row r="70" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
     </row>
     <row r="71" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
     </row>
     <row r="72" spans="2:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B72" s="34" t="s">
@@ -4149,30 +4157,31 @@
       <c r="E72" s="34"/>
     </row>
     <row r="73" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="G47:H47"/>
@@ -4189,21 +4198,20 @@
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="H26:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" fitToHeight="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -4233,19 +4241,19 @@
       <c r="B2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="107"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="108"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -4260,7 +4268,7 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="59">
         <v>3</v>
       </c>
     </row>
@@ -4329,17 +4337,17 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
@@ -4378,15 +4386,15 @@
         <f>(C12-C15/1000)/SUM(D18:D20)*D18/C18</f>
         <v>74.75</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="95">
         <f>C11-SUM(E18:E20)</f>
         <v>510.75</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="96">
         <f>C13/C6</f>
         <v>135</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="97">
         <f>C11-G18</f>
         <v>615</v>
       </c>
@@ -4405,9 +4413,9 @@
         <f>(C12-C15/1000)/SUM(D18:D20)*D19/C19</f>
         <v>149.5</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
@@ -4420,26 +4428,26 @@
       <c r="E20" s="21">
         <v>15</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
     </row>
     <row r="21" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="88">
         <f>SUM(E18:F20)</f>
         <v>750</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="66">
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90">
         <f>SUM(G18:H20)</f>
         <v>750</v>
       </c>
-      <c r="H21" s="67"/>
+      <c r="H21" s="91"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
@@ -4459,17 +4467,17 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72" t="s">
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="73"/>
+      <c r="H24" s="107"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
@@ -4504,15 +4512,15 @@
         <f>E18*$C$23</f>
         <v>299</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="100">
         <f>F18*C23</f>
         <v>2043</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="101">
         <f>G18*C23</f>
         <v>540</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="102">
         <f>H18*C23</f>
         <v>2460</v>
       </c>
@@ -4527,9 +4535,9 @@
         <f t="shared" ref="E27:E28" si="0">E19*$C$23</f>
         <v>598</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="102"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
@@ -4541,26 +4549,26 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="102"/>
     </row>
     <row r="29" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="88">
         <f>SUM(E26:F28)</f>
         <v>3000</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64">
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="103">
         <f>SUM(G26:H28)</f>
         <v>3000</v>
       </c>
-      <c r="H29" s="65"/>
+      <c r="H29" s="104"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F30" s="7"/>
@@ -4586,13 +4594,13 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
     </row>
     <row r="45" spans="2:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B45" s="34"/>
@@ -4602,6 +4610,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B24:F24"/>
@@ -4611,12 +4625,6 @@
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="H18:H20"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -4625,10 +4633,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0B08D4-32B5-E846-8D87-7E0C040463F8}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView topLeftCell="A45" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5478,44 +5486,36 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="2">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="1">
+        <v>117</v>
+      </c>
+      <c r="C95" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C96" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C98" s="1">
         <v>10</v>
@@ -5523,35 +5523,54 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C99" s="1">
-        <f>C96/C94*C95*C97*C98</f>
-        <v>1166666.6666666665</v>
+        <f>C96/C95*C97*C98</f>
+        <v>2500000</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" s="2">
-        <v>857</v>
-      </c>
-      <c r="E100" s="136">
+      <c r="E100" s="86">
         <f>E101/C99</f>
-        <v>8571.4285714285725</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1850</v>
+      </c>
+      <c r="E101" s="85">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="84">
+        <f>C101*C99</f>
+        <v>4625000000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C101" s="134">
-        <f>C100*C99</f>
-        <v>999833333.33333325</v>
-      </c>
-      <c r="E101" s="135">
-        <v>10000000000</v>
+      <c r="C103" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" s="87">
+        <f>C102*500</f>
+        <v>2312500000000</v>
       </c>
     </row>
   </sheetData>
@@ -5562,10 +5581,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BD8F55-0A9D-CA4E-B2EB-0634BFFBB30F}">
-  <dimension ref="B4:C46"/>
+  <dimension ref="B4:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5575,275 +5594,288 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="114"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="115"/>
+      <c r="C5" s="65"/>
     </row>
     <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="66"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="68">
         <v>718</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="68">
         <v>5400</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="68">
         <v>1740</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="63">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="63">
         <f>C12/(C14+1)*0.9</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="63">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="63">
         <v>0.61790123456790125</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="63">
         <f>C15*C13*C10</f>
         <v>200.2</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="130">
+      <c r="C19" s="80">
         <f>C13*C14*C15*C11</f>
         <v>129.01777777777778</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="120">
+      <c r="B20" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="70">
         <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="130">
+      <c r="C21" s="80">
         <f>(C18+C19/C14)*C20</f>
         <v>105.88355555555555</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="119"/>
-      <c r="C22" s="133"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="83"/>
     </row>
     <row r="23" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="121"/>
-      <c r="C23" s="119"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="63">
         <f>2000*C11/1740</f>
         <v>2000</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="131">
+      <c r="C25" s="81">
         <f>585*C10/(C10+C9)</f>
         <v>516.34521085322001</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="121"/>
-      <c r="C26" s="119"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="69"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
     </row>
     <row r="28" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="117"/>
-      <c r="C28" s="122"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="72"/>
     </row>
     <row r="29" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
     </row>
     <row r="30" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="115">
-        <v>1000</v>
+      <c r="C30" s="65">
+        <v>1500</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
     </row>
     <row r="32" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="125">
+      <c r="C32" s="75">
         <f>C30/C21</f>
-        <v>9.444337175429613</v>
+        <v>14.16650576314442</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B33" s="126" t="s">
+      <c r="B33" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="127">
+      <c r="C33" s="77">
         <f>C32*C19/C24</f>
-        <v>0.60924369747899165</v>
+        <v>0.91386554621848748</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="129">
+      <c r="C34" s="79">
         <f>C32*C18/C25</f>
-        <v>3.6618066029830736</v>
+        <v>5.4927099044746104</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="82" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B40" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B42" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="65">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B43" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="63">
+        <f>5*C40</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B44" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="63">
+        <f>5*C40</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="115">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B41" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="115">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B42" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="113">
-        <f>5*C39</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B43" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="113">
-        <f>5*C39</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B44" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="115">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B45" s="113" t="s">
+      <c r="C45" s="138">
+        <f>C39*(C18+C19)/1000</f>
+        <v>4.6090488888888883</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B46" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="113">
-        <f>50*C39-C41-C42-C43-C44</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B46" s="113" t="s">
+      <c r="C46" s="80">
+        <f>50*C40-C42-C43-C44-C45</f>
+        <v>15.390951111111111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B47" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="113">
-        <f>C39*50</f>
-        <v>800</v>
+      <c r="C47" s="63">
+        <f>C40*50</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
